--- a/data/observations/obs_flow_and_stage.xlsx
+++ b/data/observations/obs_flow_and_stage.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>POINT_X</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>INFLOW</t>
+  </si>
+  <si>
+    <t>GAGE-2</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,12 +476,26 @@
         <v>10</v>
       </c>
       <c r="B7">
+        <v>427070.614</v>
+      </c>
+      <c r="C7">
+        <v>6654948.9349999996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>427030.76</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6654934.2599999998</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/observations/obs_flow_and_stage.xlsx
+++ b/data/observations/obs_flow_and_stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>POINT_X</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>GAGE-2</t>
+  </si>
+  <si>
+    <t>SFR</t>
+  </si>
+  <si>
+    <t>DTS_INFLOW_1</t>
+  </si>
+  <si>
+    <t>DTS_INFLOW_2</t>
+  </si>
+  <si>
+    <t>DTS_INFLOW_3</t>
+  </si>
+  <si>
+    <t>DTS_INFLOW_4</t>
   </si>
 </sst>
 </file>
@@ -375,19 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -401,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -415,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -429,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -443,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -457,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -471,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -485,7 +500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -497,6 +512,62 @@
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>427418.522</v>
+      </c>
+      <c r="C9">
+        <v>6654902.216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>427392.45600000001</v>
+      </c>
+      <c r="C10">
+        <v>6654918.6279999996</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>427385.66600000003</v>
+      </c>
+      <c r="C11">
+        <v>6654937.7149999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>427316.217</v>
+      </c>
+      <c r="C12">
+        <v>6655000.2060000002</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
